--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>OLO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,102 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E8" s="3">
         <v>30500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4300</v>
       </c>
       <c r="G9" s="3">
         <v>4300</v>
@@ -762,45 +769,51 @@
         <v>4300</v>
       </c>
       <c r="I9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J9" s="3">
         <v>4500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E10" s="3">
         <v>25200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>9700</v>
       </c>
       <c r="I10" s="3">
         <v>9700</v>
       </c>
       <c r="J10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K10" s="3">
         <v>8400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="3">
         <v>10200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
+        <v>43600</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>30500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>27500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>24300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>16100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>14000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3">
         <v>12100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,42 +1042,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-22300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-20200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J20" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>-26200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,13 +1232,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
+      <c r="D26" s="3">
+        <v>-26500</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
@@ -1197,11 +1249,11 @@
       <c r="F26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>16</v>
@@ -1212,13 +1264,16 @@
       <c r="K26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
+      <c r="D27" s="3">
+        <v>-26500</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>16</v>
@@ -1226,11 +1281,11 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>16</v>
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>16</v>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,42 +1424,48 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>22300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>20200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>19000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>14800</v>
-      </c>
-      <c r="J32" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="3">
         <v>15800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+      <c r="D33" s="3">
+        <v>-26500</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>16</v>
@@ -1400,11 +1473,11 @@
       <c r="F33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>16</v>
+      <c r="G33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,13 +1520,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
+      <c r="D35" s="3">
+        <v>-26500</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
@@ -1458,11 +1537,11 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>16</v>
+      <c r="G35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>16</v>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>586600</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>48600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,124 +1745,139 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>639900</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
+        <v>646400</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>72000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+        <v>78100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
+        <v>81100</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-95800</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>565200</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,47 +2747,53 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>16</v>
+      <c r="D81" s="3">
+        <v>-26500</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>16</v>
@@ -2606,11 +2801,11 @@
       <c r="F81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>16</v>
+      <c r="G81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>16</v>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>4200</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>506800</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>510800</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,112 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E8" s="3">
         <v>36100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E9" s="3">
         <v>6900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4300</v>
       </c>
       <c r="H9" s="3">
         <v>4300</v>
@@ -772,48 +779,54 @@
         <v>4300</v>
       </c>
       <c r="J9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E10" s="3">
         <v>29300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9700</v>
       </c>
       <c r="J10" s="3">
         <v>9700</v>
       </c>
       <c r="K10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L10" s="3">
         <v>8400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,17 +991,18 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E17" s="3">
         <v>43600</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
@@ -991,23 +1018,26 @@
       <c r="J17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
+      <c r="K17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1023,14 +1053,17 @@
       <c r="J18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="3">
         <v>12100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,17 +1076,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-18900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1069,23 +1103,26 @@
       <c r="J20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="3">
         <v>-15800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1139,40 +1179,46 @@
       <c r="L22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,28 +1284,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26500</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>16</v>
+      <c r="H26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>16</v>
@@ -1267,28 +1319,31 @@
       <c r="L26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26500</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>16</v>
+      <c r="H27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>16</v>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,17 +1494,20 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>18900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1453,34 +1523,37 @@
       <c r="J32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="3">
         <v>15800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26500</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>16</v>
+      <c r="H33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>16</v>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,28 +1599,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26500</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>16</v>
+      <c r="H35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>16</v>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,17 +1706,18 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>575200</v>
+      </c>
+      <c r="E41" s="3">
         <v>586600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1646,14 +1733,17 @@
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,17 +1774,20 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E43" s="3">
         <v>48600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1710,14 +1803,17 @@
       <c r="J43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,17 +1844,20 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1774,23 +1873,26 @@
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>624300</v>
+      </c>
+      <c r="E46" s="3">
         <v>639900</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1806,23 +1908,26 @@
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>16</v>
       </c>
@@ -1838,23 +1943,26 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1870,14 +1978,17 @@
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,17 +2089,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>16</v>
       </c>
@@ -1998,14 +2118,17 @@
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,17 +2159,20 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>631300</v>
+      </c>
+      <c r="E54" s="3">
         <v>646400</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2062,14 +2188,17 @@
       <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
+      <c r="K54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,17 +2226,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2122,14 +2253,17 @@
       <c r="J57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,17 +2294,20 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E59" s="3">
         <v>72000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2186,23 +2323,26 @@
       <c r="J59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E60" s="3">
         <v>78100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2218,14 +2358,17 @@
       <c r="J60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
+      <c r="K60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,17 +2399,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2282,14 +2428,17 @@
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,17 +2539,20 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E66" s="3">
         <v>81100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2410,14 +2568,17 @@
       <c r="J66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
+      <c r="K66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,17 +2729,20 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-98200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-95800</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2584,14 +2758,17 @@
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,17 +2869,20 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>573100</v>
+      </c>
+      <c r="E76" s="3">
         <v>565200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2712,14 +2898,17 @@
       <c r="J76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
+      <c r="K76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,65 +2939,71 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26500</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>16</v>
+      <c r="H81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>16</v>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,16 +3031,17 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
+      <c r="E83" s="3">
+        <v>300</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>16</v>
@@ -2859,14 +3058,17 @@
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,17 +3239,20 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E89" s="3">
         <v>4200</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3051,14 +3268,17 @@
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,17 +3291,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3097,14 +3318,17 @@
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,17 +3394,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3193,14 +3423,17 @@
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,17 +3584,20 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E100" s="3">
         <v>506800</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3367,14 +3613,17 @@
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,17 +3654,20 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E102" s="3">
         <v>510800</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3431,10 +3683,13 @@
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>OLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E8" s="3">
         <v>35900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>36100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>27500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4300</v>
       </c>
       <c r="I9" s="3">
         <v>4300</v>
@@ -782,51 +789,57 @@
         <v>4300</v>
       </c>
       <c r="K9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L9" s="3">
         <v>4500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E10" s="3">
         <v>28500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>9700</v>
       </c>
       <c r="K10" s="3">
         <v>9700</v>
       </c>
       <c r="L10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="M10" s="3">
         <v>8400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E17" s="3">
         <v>38300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43600</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>16</v>
+      <c r="G17" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>20100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
+      <c r="L17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>16</v>
+      <c r="G18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="3">
         <v>12100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,57 +1120,60 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-18900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>16</v>
+      <c r="G20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="3">
         <v>-15800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="G21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1165,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,31 +1336,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26500</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
+      <c r="G26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>16</v>
+        <v>3900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>16</v>
@@ -1322,31 +1374,34 @@
       <c r="M26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26500</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>16</v>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>16</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>16</v>
@@ -1357,8 +1412,11 @@
       <c r="M27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,57 +1576,60 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>18900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>16</v>
+      <c r="G32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="3">
         <v>15800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26500</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>16</v>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>16</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>16</v>
@@ -1567,8 +1640,11 @@
       <c r="M33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,31 +1678,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26500</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>16</v>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>16</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>16</v>
@@ -1637,48 +1716,54 @@
       <c r="M35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,20 +1793,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>597700</v>
+      </c>
+      <c r="E41" s="3">
         <v>575200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>586600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1736,14 +1823,17 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,20 +1867,23 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E43" s="3">
         <v>40400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1806,14 +1899,17 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,20 +1943,23 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1876,26 +1975,29 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E46" s="3">
         <v>624300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>639900</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1911,26 +2013,29 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
       </c>
@@ -1946,26 +2051,29 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1981,14 +2089,17 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,20 +2209,23 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2121,14 +2241,17 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,20 +2285,23 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>653900</v>
+      </c>
+      <c r="E54" s="3">
         <v>631300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>646400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2191,14 +2317,17 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
+      <c r="L54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,20 +2357,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2256,14 +2387,17 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,20 +2431,23 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E59" s="3">
         <v>52700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2326,26 +2463,29 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E60" s="3">
         <v>54500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2361,14 +2501,17 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
+      <c r="L60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,20 +2545,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2431,14 +2577,17 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,20 +2697,23 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E66" s="3">
         <v>58200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>81100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2571,14 +2729,17 @@
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
+      <c r="L66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,20 +2903,23 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-98200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-95800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2761,14 +2935,17 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,20 +3055,23 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>583100</v>
+      </c>
+      <c r="E76" s="3">
         <v>573100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>565200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2901,14 +3087,17 @@
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
+      <c r="L76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,71 +3131,77 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26500</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>16</v>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>16</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>16</v>
@@ -3017,8 +3212,11 @@
       <c r="M81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3043,32 +3242,35 @@
       <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E89" s="3">
         <v>11300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4200</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+      <c r="G89" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3301,34 +3522,37 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,34 +3636,37 @@
         <v>-500</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+      <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>506800</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+      <c r="G100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>31200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>14900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>510800</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+      <c r="G102" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>18500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>OLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,131 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E8" s="3">
         <v>37400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
         <v>8200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4300</v>
       </c>
       <c r="J9" s="3">
         <v>4300</v>
@@ -792,54 +798,60 @@
         <v>4300</v>
       </c>
       <c r="L9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M9" s="3">
         <v>4500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E10" s="3">
         <v>29200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9700</v>
       </c>
       <c r="L10" s="3">
         <v>9700</v>
       </c>
       <c r="M10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N10" s="3">
         <v>8400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E17" s="3">
         <v>48600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
+      <c r="M17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="3">
         <v>12100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,73 +1143,77 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-18900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="3">
         <v>-15800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1208,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1225,51 +1264,57 @@
       <c r="N22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-4700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,35 +1387,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1377,23 +1428,26 @@
       <c r="N26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1403,8 +1457,8 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>16</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>16</v>
@@ -1415,8 +1469,11 @@
       <c r="N27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,61 +1633,67 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>18900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="3">
         <v>15800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1631,8 +1703,8 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>16</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>16</v>
@@ -1643,8 +1715,11 @@
       <c r="N33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,23 +1756,26 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1707,8 +1785,8 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>16</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>16</v>
@@ -1719,51 +1797,57 @@
       <c r="N35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,23 +1879,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>514400</v>
+      </c>
+      <c r="E41" s="3">
         <v>597700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>575200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>586600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1826,14 +1912,17 @@
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,23 +1959,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E43" s="3">
         <v>41000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1902,14 +1994,17 @@
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,23 +2041,26 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
         <v>7200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1978,29 +2076,32 @@
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>565600</v>
+      </c>
+      <c r="E46" s="3">
         <v>646000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>624300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>639900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2016,29 +2117,32 @@
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2054,29 +2158,32 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2092,37 +2199,40 @@
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>182600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2221,14 +2340,14 @@
         <v>4000</v>
       </c>
       <c r="E52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2244,14 +2363,17 @@
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,23 +2410,26 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>755900</v>
+      </c>
+      <c r="E54" s="3">
         <v>653900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>631300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>646400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2320,14 +2445,17 @@
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,23 +2487,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,14 +2520,17 @@
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,23 +2567,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E59" s="3">
         <v>61100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2466,29 +2602,32 @@
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E60" s="3">
         <v>66400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2504,14 +2643,17 @@
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,23 +2690,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2580,14 +2725,17 @@
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,23 +2854,26 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E66" s="3">
         <v>70800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>81100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2732,14 +2889,17 @@
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,23 +3076,26 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-98200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-95800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2938,14 +3111,17 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,23 +3240,26 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>701800</v>
+      </c>
+      <c r="E76" s="3">
         <v>583100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>573100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>565200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3090,14 +3275,17 @@
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,66 +3322,72 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3203,8 +3397,8 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>16</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>16</v>
@@ -3215,8 +3409,11 @@
       <c r="N81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,13 +3428,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -3246,31 +3444,34 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
       </c>
       <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-75900</v>
       </c>
       <c r="E94" s="3">
         <v>-500</v>
       </c>
       <c r="F94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>12300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>506800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>31200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E102" s="3">
         <v>22500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>510800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>OLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,141 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E8" s="3">
         <v>40000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E9" s="3">
         <v>8500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4300</v>
       </c>
       <c r="K9" s="3">
         <v>4300</v>
@@ -801,57 +808,63 @@
         <v>4300</v>
       </c>
       <c r="M9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="3">
         <v>31500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>9700</v>
       </c>
       <c r="M10" s="3">
         <v>9700</v>
       </c>
       <c r="N10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="O10" s="3">
         <v>8400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E12" s="3">
         <v>16000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
         <v>46800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
+      <c r="N17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="3">
         <v>12100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,79 +1177,83 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-18900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="3">
         <v>-15800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1226,13 +1263,16 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1250,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1267,58 +1307,64 @@
       <c r="O22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,38 +1439,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1431,26 +1483,29 @@
       <c r="O26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1460,8 +1515,8 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>16</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>16</v>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,67 +1703,73 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>18900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="3">
         <v>15800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1706,8 +1779,8 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>16</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>16</v>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,26 +1835,29 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1867,8 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>16</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>16</v>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,26 +1966,27 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>463700</v>
+      </c>
+      <c r="E41" s="3">
         <v>514400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>597700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>575200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>586600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1915,14 +2002,17 @@
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,26 +2052,29 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E43" s="3">
         <v>42900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1997,14 +2090,17 @@
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,26 +2140,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2079,32 +2178,35 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>523900</v>
+      </c>
+      <c r="E46" s="3">
         <v>565600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>646000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>624300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>639900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2120,32 +2222,35 @@
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2161,32 +2266,35 @@
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2202,23 +2310,26 @@
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>232300</v>
+      </c>
+      <c r="E49" s="3">
         <v>182600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2234,8 +2345,8 @@
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,26 +2448,29 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
         <v>4000</v>
       </c>
       <c r="F52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2366,14 +2486,17 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,26 +2536,29 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>784300</v>
+      </c>
+      <c r="E54" s="3">
         <v>755900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>653900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>631300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>646400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2448,14 +2574,17 @@
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
+      <c r="N54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,26 +2618,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2523,14 +2654,17 @@
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,26 +2704,29 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E59" s="3">
         <v>46600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2605,32 +2742,35 @@
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E60" s="3">
         <v>48800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2646,14 +2786,17 @@
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="N60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,26 +2836,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2728,14 +2874,17 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,26 +3012,29 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E66" s="3">
         <v>54100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>81100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2892,14 +3050,17 @@
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
+      <c r="N66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,26 +3250,29 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-111600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-109500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-98200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-95800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3114,14 +3288,17 @@
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,26 +3426,29 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-705000</v>
+      </c>
+      <c r="E76" s="3">
         <v>701800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>583100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>573100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>565200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3278,14 +3464,17 @@
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
+      <c r="N76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,72 +3514,78 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3400,8 +3595,8 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>16</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>16</v>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,16 +3627,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -3447,31 +3646,34 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75900</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>-500</v>
       </c>
       <c r="G94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>506800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>31200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3">
         <v>-83300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>510800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>OLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,151 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E8" s="3">
         <v>42800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E9" s="3">
         <v>12800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4300</v>
       </c>
       <c r="L9" s="3">
         <v>4300</v>
@@ -811,60 +818,66 @@
         <v>4300</v>
       </c>
       <c r="N9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O9" s="3">
         <v>4500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E10" s="3">
         <v>30000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11800</v>
-      </c>
-      <c r="M10" s="3">
-        <v>9700</v>
       </c>
       <c r="N10" s="3">
         <v>9700</v>
       </c>
       <c r="O10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="P10" s="3">
         <v>8400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="E12" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F12" s="3">
         <v>16000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
+      <c r="D17" s="3">
+        <v>57500</v>
       </c>
       <c r="E17" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F17" s="3">
         <v>46800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
+      <c r="O17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
+      <c r="D18" s="3">
+        <v>-11900</v>
       </c>
       <c r="E18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="3">
         <v>12100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,85 +1211,89 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
+      <c r="D20" s="3">
+        <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-18900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="3">
         <v>-15800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>-9900</v>
       </c>
       <c r="E21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1266,16 +1303,19 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1293,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1310,64 +1350,70 @@
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,41 +1491,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
+      <c r="D26" s="3">
+        <v>-11700</v>
       </c>
       <c r="E26" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1486,29 +1538,32 @@
       <c r="P26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
+      <c r="D27" s="3">
+        <v>-11700</v>
       </c>
       <c r="E27" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1518,8 +1573,8 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>16</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>16</v>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,73 +1773,79 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
+      <c r="D32" s="3">
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>18900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="3">
         <v>15800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+      <c r="D33" s="3">
+        <v>-11700</v>
       </c>
       <c r="E33" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1782,8 +1855,8 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>16</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>16</v>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,29 +1914,32 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
+      <c r="D35" s="3">
+        <v>-11700</v>
       </c>
       <c r="E35" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +1949,8 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>16</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>16</v>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,29 +2053,30 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>386700</v>
+      </c>
+      <c r="E41" s="3">
         <v>463700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>514400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>597700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>575200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>586600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2005,37 +2092,40 @@
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>73500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2055,29 +2145,32 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E43" s="3">
         <v>47900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2093,14 +2186,17 @@
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,29 +2239,32 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2181,35 +2280,38 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>513200</v>
+      </c>
+      <c r="E46" s="3">
         <v>523900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>565600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>646000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>624300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>639900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2225,35 +2327,38 @@
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2269,35 +2374,38 @@
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5900</v>
+        <v>26300</v>
       </c>
       <c r="E48" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2313,26 +2421,29 @@
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>231200</v>
+      </c>
+      <c r="E49" s="3">
         <v>232300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>182600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2348,8 +2459,8 @@
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,29 +2568,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4000</v>
       </c>
       <c r="F52" s="3">
         <v>4000</v>
       </c>
       <c r="G52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H52" s="3">
         <v>3800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2489,14 +2609,17 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,29 +2662,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>780300</v>
+      </c>
+      <c r="E54" s="3">
         <v>784300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>755900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>653900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>631300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>646400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2577,14 +2703,17 @@
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="O54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,29 +2749,30 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2657,14 +2788,17 @@
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,29 +2841,32 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53500</v>
+        <v>50600</v>
       </c>
       <c r="E59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F59" s="3">
         <v>46600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2745,35 +2882,38 @@
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E60" s="3">
         <v>59500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2789,14 +2929,17 @@
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,29 +2982,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
+        <v>18700</v>
       </c>
       <c r="E62" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2877,14 +3023,17 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,29 +3170,32 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E66" s="3">
         <v>79300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>81100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3053,14 +3211,17 @@
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
+      <c r="O66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,29 +3424,32 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-134800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-123100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-111600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-109500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-98200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-95800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3291,14 +3465,17 @@
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,29 +3612,32 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-705000</v>
+        <v>708900</v>
       </c>
       <c r="E76" s="3">
+        <v>705000</v>
+      </c>
+      <c r="F76" s="3">
         <v>701800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>583100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>573100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>565200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3467,14 +3653,17 @@
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,78 +3706,84 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>16</v>
+      <c r="D81" s="3">
+        <v>-11700</v>
       </c>
       <c r="E81" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3598,8 +3793,8 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>16</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>16</v>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +3826,20 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3649,31 +3848,34 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3">
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>51800</v>
+        <v>-81100</v>
       </c>
       <c r="E94" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-75900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-500</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
       </c>
       <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>4000</v>
       </c>
       <c r="E100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-22100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>506800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>31200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>-77100</v>
       </c>
       <c r="E102" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-83300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>510800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F8" s="3">
         <v>45600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>42800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>40000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>37400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>35900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>36100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>30500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>27500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>24300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>16100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>14000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>14200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F9" s="3">
         <v>14200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>8500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>6900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>4300</v>
       </c>
       <c r="N9" s="3">
         <v>4300</v>
       </c>
       <c r="O9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>4500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F10" s="3">
         <v>31400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>30000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>31500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>29200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>28500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>29300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>25200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>22700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>20000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>9700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>9700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F12" s="3">
         <v>17200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>16300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>16000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>13900</v>
       </c>
       <c r="I12" s="3">
         <v>14500</v>
       </c>
       <c r="J12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="L12" s="3">
         <v>10200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,23 +1022,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1015,11 +1054,11 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>63200</v>
+      </c>
+      <c r="F17" s="3">
         <v>57500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>55700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>46800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>48600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>38300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>43600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>25000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>18700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-11200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="3">
         <v>12100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,116 +1277,130 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-18900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-11700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-11000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-26200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1336,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1345,7 +1424,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1353,73 +1432,85 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-26400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-4700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,93 +1591,105 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-26500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-26500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>16</v>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>16</v>
@@ -1588,8 +1697,14 @@
       <c r="Q27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,93 +1909,105 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>18900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="3">
         <v>15800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-26500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>16</v>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>16</v>
@@ -1870,8 +2015,14 @@
       <c r="Q33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,46 +2068,52 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-26500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>16</v>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>16</v>
@@ -1964,60 +2121,72 @@
       <c r="Q35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2225,37 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>350100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>366400</v>
+      </c>
+      <c r="F41" s="3">
         <v>386700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>463700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>514400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>597700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>575200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>586600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2095,26 +2268,32 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F42" s="3">
         <v>73500</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2127,11 +2306,11 @@
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2148,35 +2327,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F43" s="3">
         <v>42100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>47900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>42900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>41000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>40400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>48600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2189,14 +2374,20 @@
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,35 +2433,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2283,41 +2480,47 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>511800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>521200</v>
+      </c>
+      <c r="F46" s="3">
         <v>513200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>523900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>565600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>646000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>624300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>639900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2330,41 +2533,47 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F47" s="3">
         <v>5100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2377,41 +2586,47 @@
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F48" s="3">
         <v>26300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>23800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2424,32 +2639,38 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>229500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>230200</v>
+      </c>
+      <c r="F49" s="3">
         <v>231200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>232300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>182600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2462,11 +2683,11 @@
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,26 +2819,26 @@
         <v>4400</v>
       </c>
       <c r="E52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2612,14 +2851,20 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,35 +2910,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>775600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>782400</v>
+      </c>
+      <c r="F54" s="3">
         <v>780300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>784300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>755900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>653900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>631300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>646400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,14 +2957,20 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +3009,37 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2791,14 +3052,20 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,35 +3111,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F59" s="3">
         <v>50600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>56100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>46600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>61100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>52700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>72000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2885,41 +3158,47 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>53700</v>
+      </c>
+      <c r="F60" s="3">
         <v>52600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>59500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>48800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>66400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>54500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>78100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2932,14 +3211,20 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,35 +3270,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F62" s="3">
         <v>18700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>19900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3026,14 +3317,20 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,35 +3482,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>71400</v>
+      </c>
+      <c r="F66" s="3">
         <v>71300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>79300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>54100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>70800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>58200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>81100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3214,14 +3529,20 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3768,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-149300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-134800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-123100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-111600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-109500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-98200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-95800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3468,14 +3815,20 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,35 +3980,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>697600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>711000</v>
+      </c>
+      <c r="F76" s="3">
         <v>708900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>705000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>701800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>583100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>573100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>565200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3656,14 +4027,20 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,98 +4086,110 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-26500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>16</v>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>16</v>
@@ -3808,8 +4197,14 @@
       <c r="Q81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>10700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>17400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-600</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-81100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-51800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-75900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-600</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
       </c>
       <c r="M94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>12300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-22100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>506800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>31200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>14900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-77100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-50700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-83300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>22500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>510800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>15600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>26500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>18500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>OLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,180 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E8" s="3">
         <v>49800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15300</v>
+        <v>18700</v>
       </c>
       <c r="E9" s="3">
         <v>15300</v>
       </c>
       <c r="F9" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G9" s="3">
         <v>14200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>4300</v>
       </c>
       <c r="O9" s="3">
         <v>4300</v>
@@ -840,69 +847,75 @@
         <v>4300</v>
       </c>
       <c r="Q9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R9" s="3">
         <v>4500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E10" s="3">
         <v>34500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11800</v>
-      </c>
-      <c r="P10" s="3">
-        <v>9700</v>
       </c>
       <c r="Q10" s="3">
         <v>9700</v>
       </c>
       <c r="R10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="S10" s="3">
         <v>8400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E12" s="3">
         <v>19800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,26 +1045,29 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
         <v>60700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>46800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
+      <c r="R17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="3">
         <v>12100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,103 +1312,107 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-18900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="3">
         <v>-15800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,13 +1437,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1421,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1438,82 +1478,88 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,50 +1646,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1650,38 +1702,41 @@
       <c r="S26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1691,8 +1746,8 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>16</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>16</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,91 +1982,97 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>18900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" s="3">
         <v>15800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2009,8 +2082,8 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>16</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>16</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,38 +2150,41 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2115,8 +2194,8 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>16</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>16</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,38 +2313,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>331500</v>
+      </c>
+      <c r="E41" s="3">
         <v>350100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>366400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>386700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>463700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>514400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>597700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>575200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>586600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2274,29 +2361,32 @@
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E42" s="3">
         <v>98700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>73500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2312,8 +2402,8 @@
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2333,38 +2423,41 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E43" s="3">
         <v>48500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2380,14 +2473,17 @@
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,38 +2535,41 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
         <v>14500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2486,44 +2585,47 @@
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>488400</v>
+      </c>
+      <c r="E46" s="3">
         <v>511800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>521200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>513200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>523900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>565600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>646000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>624300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>639900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2539,44 +2641,47 @@
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="R46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2592,44 +2697,47 @@
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E48" s="3">
         <v>27300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2645,35 +2753,38 @@
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>228500</v>
+      </c>
+      <c r="E49" s="3">
         <v>229500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>230200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>231200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>232300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>182600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2689,8 +2800,8 @@
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="E52" s="3">
         <v>4400</v>
@@ -2825,23 +2945,23 @@
         <v>4400</v>
       </c>
       <c r="G52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H52" s="3">
         <v>3700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4000</v>
       </c>
       <c r="I52" s="3">
         <v>4000</v>
       </c>
       <c r="J52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2857,14 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,38 +3039,41 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>767500</v>
+      </c>
+      <c r="E54" s="3">
         <v>775600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>782400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>780300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>784300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>755900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>653900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>631300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>646400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2963,14 +3089,17 @@
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
+      <c r="R54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,38 +3141,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3058,14 +3189,17 @@
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,38 +3251,41 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E59" s="3">
         <v>58200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>61100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3164,44 +3301,47 @@
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E60" s="3">
         <v>60400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>52600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>54500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3217,14 +3357,17 @@
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
+      <c r="R60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,38 +3419,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E62" s="3">
         <v>17500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3323,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,38 +3643,41 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E66" s="3">
         <v>77900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>70800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3535,14 +3693,17 @@
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
+      <c r="R66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,38 +3945,41 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-171200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-157500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-149300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-123100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-111600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-109500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-98200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-95800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3821,14 +3995,17 @@
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,38 +4169,41 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>681500</v>
+      </c>
+      <c r="E76" s="3">
         <v>697600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>711000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>708900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>705000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>701800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>583100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>573100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>565200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4033,14 +4219,17 @@
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
+      <c r="R76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,96 +4281,102 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4191,8 +4386,8 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>16</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>16</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,28 +4422,29 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
       </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4254,31 +4453,34 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-3400</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>-1900</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-3000</v>
       </c>
       <c r="H91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
       </c>
       <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-81100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-75900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-500</v>
       </c>
       <c r="J94" s="3">
         <v>-500</v>
       </c>
       <c r="K94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>506800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>31200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-77100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-83300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>510800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>OLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,190 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E8" s="3">
         <v>52200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E9" s="3">
         <v>18700</v>
-      </c>
-      <c r="E9" s="3">
-        <v>15300</v>
       </c>
       <c r="F9" s="3">
         <v>15300</v>
       </c>
       <c r="G9" s="3">
-        <v>14200</v>
+        <v>15300</v>
       </c>
       <c r="H9" s="3">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="I9" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J9" s="3">
         <v>8500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>4300</v>
       </c>
       <c r="P9" s="3">
         <v>4300</v>
@@ -850,72 +857,78 @@
         <v>4300</v>
       </c>
       <c r="R9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S9" s="3">
         <v>4500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E10" s="3">
         <v>33500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32000</v>
       </c>
-      <c r="G10" s="3">
-        <v>31400</v>
-      </c>
       <c r="H10" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="I10" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J10" s="3">
         <v>31500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11800</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>9700</v>
       </c>
       <c r="R10" s="3">
         <v>9700</v>
       </c>
       <c r="S10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="T10" s="3">
         <v>8400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E12" s="3">
         <v>20500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I12" s="3">
         <v>17200</v>
       </c>
-      <c r="H12" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,29 +1065,32 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1083,8 +1103,8 @@
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
+      <c r="D17" s="3">
+        <v>76400</v>
       </c>
       <c r="E17" s="3">
+        <v>69300</v>
+      </c>
+      <c r="F17" s="3">
         <v>60700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>46800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
+      <c r="S17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
+      <c r="D18" s="3">
+        <v>-21100</v>
       </c>
       <c r="E18" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="3">
         <v>12100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,109 +1346,113 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
+      <c r="D20" s="3">
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-18900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" s="3">
         <v>-15800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>-14700</v>
       </c>
       <c r="E21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,10 +1480,10 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1464,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,23 +1592,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,53 +1698,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
+      <c r="D26" s="3">
+        <v>-17100</v>
       </c>
       <c r="E26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1705,41 +1757,44 @@
       <c r="T26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
+      <c r="D27" s="3">
+        <v>-17100</v>
       </c>
       <c r="E27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1749,8 +1804,8 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>16</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>16</v>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,97 +2052,103 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
+      <c r="D32" s="3">
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>18900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T32" s="3">
         <v>15800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+      <c r="D33" s="3">
+        <v>-17100</v>
       </c>
       <c r="E33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2085,8 +2158,8 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>16</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>16</v>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,41 +2229,44 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
+      <c r="D35" s="3">
+        <v>-17100</v>
       </c>
       <c r="E35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2197,8 +2276,8 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>16</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>16</v>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,41 +2400,42 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E41" s="3">
         <v>331500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>350100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>366400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>386700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>463700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>514400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>597700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>575200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>586600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2364,32 +2451,35 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E42" s="3">
         <v>90700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>98700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>102000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>73500</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2405,8 +2495,8 @@
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2426,41 +2516,44 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E43" s="3">
         <v>50800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2476,14 +2569,17 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,41 +2634,44 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2588,47 +2687,50 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>473100</v>
+      </c>
+      <c r="E46" s="3">
         <v>488400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>511800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>521200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>513200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>523900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>565600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>646000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>624300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>639900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2644,47 +2746,50 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="S46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E47" s="3">
         <v>16400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2700,47 +2805,50 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E48" s="3">
         <v>29400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2756,38 +2864,41 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E49" s="3">
         <v>228500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>229500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>230200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>231200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>232300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>182600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2803,8 +2914,8 @@
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3047,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4400</v>
       </c>
       <c r="F52" s="3">
         <v>4400</v>
@@ -2948,23 +3068,23 @@
         <v>4400</v>
       </c>
       <c r="H52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I52" s="3">
         <v>3700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4000</v>
       </c>
       <c r="J52" s="3">
         <v>4000</v>
       </c>
       <c r="K52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2980,14 +3100,17 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,41 +3165,44 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>768300</v>
+      </c>
+      <c r="E54" s="3">
         <v>767500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>775600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>782400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>780300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>784300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>755900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>653900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>631300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>646400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3092,14 +3218,17 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
+      <c r="S54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,41 +3272,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3192,14 +3323,17 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,41 +3388,44 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E59" s="3">
         <v>66800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3304,47 +3441,50 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E60" s="3">
         <v>67800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3360,14 +3500,17 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
+      <c r="S60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,41 +3565,44 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E62" s="3">
         <v>18200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3472,14 +3618,17 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,41 +3801,44 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E66" s="3">
         <v>86000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>70800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>81100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3696,14 +3854,17 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
+      <c r="S66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,41 +4119,44 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-188300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-171200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-157500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-123100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-111600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-109500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-98200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-95800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3998,14 +4172,17 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,41 +4355,44 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>673900</v>
+      </c>
+      <c r="E76" s="3">
         <v>681500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>697600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>711000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>708900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>705000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>701800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>583100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>573100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>565200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4222,14 +4408,17 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
+      <c r="S76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,102 +4473,108 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>16</v>
+      <c r="D81" s="3">
+        <v>-17100</v>
       </c>
       <c r="E81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4389,8 +4584,8 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>16</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>16</v>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,31 +4621,32 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1700</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -4456,31 +4655,34 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
       </c>
       <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-81100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-75900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-500</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
       </c>
       <c r="L94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>-5600</v>
       </c>
       <c r="E100" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-17100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>506800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>31200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>-13500</v>
       </c>
       <c r="E102" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-77100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-83300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>510800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,200 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E8" s="3">
         <v>55300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>52200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>49800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E9" s="3">
         <v>20800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>15300</v>
       </c>
       <c r="G9" s="3">
         <v>15300</v>
       </c>
       <c r="H9" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I9" s="3">
         <v>14400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4800</v>
-      </c>
-      <c r="P9" s="3">
-        <v>4300</v>
       </c>
       <c r="Q9" s="3">
         <v>4300</v>
@@ -860,75 +867,81 @@
         <v>4300</v>
       </c>
       <c r="S9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T9" s="3">
         <v>4500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E10" s="3">
         <v>34500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34500</v>
       </c>
-      <c r="G10" s="3">
-        <v>32000</v>
-      </c>
       <c r="H10" s="3">
+        <v>31800</v>
+      </c>
+      <c r="I10" s="3">
         <v>31200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11800</v>
-      </c>
-      <c r="R10" s="3">
-        <v>9700</v>
       </c>
       <c r="S10" s="3">
         <v>9700</v>
       </c>
       <c r="T10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="U10" s="3">
         <v>8400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E12" s="3">
         <v>18300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19800</v>
       </c>
-      <c r="G12" s="3">
-        <v>19100</v>
-      </c>
       <c r="H12" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I12" s="3">
         <v>17600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,32 +1085,35 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>6700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1106,8 +1126,8 @@
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E17" s="3">
         <v>76400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
+      <c r="T17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="3">
         <v>12100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,115 +1380,119 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-18900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U20" s="3">
         <v>-15800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1465,13 +1502,16 @@
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1483,7 +1523,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1507,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,23 +1641,23 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,56 +1750,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1760,44 +1812,47 @@
       <c r="U26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1807,8 +1862,8 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>16</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>16</v>
@@ -1819,8 +1874,11 @@
       <c r="U27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,103 +2122,109 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>18900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="3">
         <v>15800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2161,8 +2234,8 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>16</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>16</v>
@@ -2173,8 +2246,11 @@
       <c r="U33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,44 +2308,47 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2279,8 +2358,8 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>16</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>16</v>
@@ -2291,72 +2370,78 @@
       <c r="U35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,44 +2487,45 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>286400</v>
+      </c>
+      <c r="E41" s="3">
         <v>318000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>331500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>350100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>366400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>386700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>463700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>514400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>597700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>575200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>586600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2454,35 +2541,38 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E42" s="3">
         <v>83700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>90700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>98700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>102000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>73500</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2498,8 +2588,8 @@
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2519,44 +2609,47 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E43" s="3">
         <v>56600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>42900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2572,14 +2665,17 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,44 +2733,47 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>14700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2690,50 +2789,53 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>460400</v>
+      </c>
+      <c r="E46" s="3">
         <v>473100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>488400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>511800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>521200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>513200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>523900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>565600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>646000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>624300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>639900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2749,50 +2851,53 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
+      <c r="T46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E47" s="3">
         <v>29700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2808,50 +2913,53 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E48" s="3">
         <v>32400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2867,41 +2975,44 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E49" s="3">
         <v>227500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>228500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>229500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>230200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>231200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>232300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>182600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2917,8 +3028,8 @@
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,19 +3167,22 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
         <v>5500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4400</v>
       </c>
       <c r="G52" s="3">
         <v>4400</v>
@@ -3071,23 +3191,23 @@
         <v>4400</v>
       </c>
       <c r="I52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J52" s="3">
         <v>3700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4000</v>
       </c>
       <c r="K52" s="3">
         <v>4000</v>
       </c>
       <c r="L52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M52" s="3">
         <v>3800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3103,14 +3223,17 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,44 +3291,47 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>747100</v>
+      </c>
+      <c r="E54" s="3">
         <v>768300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>767500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>775600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>782400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>780300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>784300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>755900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>653900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>631300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>646400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3221,14 +3347,17 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
+      <c r="T54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,44 +3403,45 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3326,14 +3457,17 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,44 +3525,47 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E59" s="3">
         <v>71000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3444,50 +3581,53 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E60" s="3">
         <v>78800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>52600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>59500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3503,14 +3643,17 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
+      <c r="T60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,44 +3711,47 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3621,14 +3767,17 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,44 +3959,47 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E66" s="3">
         <v>94400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>86000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3857,14 +4015,17 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
+      <c r="T66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,44 +4293,47 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-200100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-188300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-171200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-157500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-149300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-123100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-111600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-98200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-95800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4175,14 +4349,17 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
+      <c r="T72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,44 +4541,47 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>667400</v>
+      </c>
+      <c r="E76" s="3">
         <v>673900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>681500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>697600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>711000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>708900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>705000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>701800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>583100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>573100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>565200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4411,14 +4597,17 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
+      <c r="T76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,108 +4665,114 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4587,8 +4782,8 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>16</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>16</v>
@@ -4599,8 +4794,11 @@
       <c r="U81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,34 +4820,35 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
       </c>
       <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -4658,31 +4857,34 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-500</v>
       </c>
       <c r="L91" s="3">
         <v>-500</v>
       </c>
       <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-81100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-75900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-500</v>
       </c>
       <c r="L94" s="3">
         <v>-500</v>
       </c>
       <c r="M94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>506800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>31200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-77100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-83300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>510800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
